--- a/models/result/resnet18-test1.xlsx
+++ b/models/result/resnet18-test1.xlsx
@@ -458,11 +458,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>029-XAJD-00137-LHR-201807191450-D.bmp</t>
+          <t>0531-SDZL-00075-LY-201909101424-DZ.bmp</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.178353488445282</v>
+        <v>0.3013509511947632</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,14 +474,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00155-LSQ-201809061432-D.bmp</t>
+          <t>028-CDFE-00095-ML-201906191042-D.bmp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.851495623588562</v>
+        <v>0.05290687829256058</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -490,11 +490,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00376-ZHJF-201907011102-D.bmp</t>
+          <t>0531-SDZL-00017-WCH-201811071350-D.bmp</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09319622069597244</v>
+        <v>0.346635490655899</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -506,30 +506,30 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00384-ZHYM-201907041007-D.bmp</t>
+          <t>029-XAJD-00178-ZHMD-201809120940-D.bmp</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1507138609886169</v>
+        <v>0.04445108026266098</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>028-CDEF-00135-XQ-201909161432-D.bmp</t>
+          <t>023-CHQSY-00005-TDH-201804081845-D.bmp</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08044887334108353</v>
+        <v>0.7152727842330933</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -538,30 +538,30 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>022-TJZL-00087-WJ-201811161446-D.bmp</t>
+          <t>021-SHZL-00369-ZHL-201811151050-D.bmp</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9089293479919434</v>
+        <v>0.3234972059726715</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00340-LLP-201906140920-D.bmp</t>
+          <t>029-CDFE-00079-ZHJ-2019051403-D.bmp</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8533701300621033</v>
+        <v>0.3455065190792084</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -570,43 +570,43 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>021-SHZL-00430-LJL-201905221045-D.bmp</t>
+          <t>029-XAJD-00305-JFH-201910301645-D.bmp</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8840866088867188</v>
+        <v>0.04880816489458084</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00234-JYQ-201902220953-D-L.bmp</t>
+          <t>029-XAJD-00197-MYZ-201811051529-D.bmp</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4782445430755615</v>
+        <v>0.1724945306777954</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>029-XAJD-00260-ZHYJ-201905311544-D.bmp</t>
+          <t>0571-ZHJSH-00409-DMF-201907160946-D.bmp</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.101069264113903</v>
+        <v>0.3275803029537201</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -618,46 +618,46 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>029-XAJD-00215-WYD-201811280950-D.bmp</t>
+          <t>0571-ZHJSH-00324-ZHYF-201906100937-D.bmp</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2130397260189056</v>
+        <v>0.4220196902751923</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>021-SHZL-00046-YML-201709041621-D.bmp</t>
+          <t>021-SHZL-00459-ZHXH-201907311404-D.bmp</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7157284617424011</v>
+        <v>0.6342372298240662</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00129-ZHCHP-201808281448-D.bmp</t>
+          <t>021-SHZL-00410-LKL-201903010925-D.bmp</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3361777365207672</v>
+        <v>0.8800646066665649</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -666,62 +666,62 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>021-SHZL-00039-LTH-20170825055-D.bmp</t>
+          <t>029-XAJD-00242-GMR-201903270846-D.bmp</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1691157668828964</v>
+        <v>0.1557971835136414</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>029-CDFE-00050-HNY-201903071618-D.bmp</t>
+          <t>021-SHZL-00275-ZHMY-201808071321-D.bmp</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0336734913289547</v>
+        <v>0.397549033164978</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00051-ZHAF-201807190951-D-L.bmp</t>
+          <t>021-SHZL-00091-LYQ-201711241117-D.bmp</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09356852620840073</v>
+        <v>0.9023060202598572</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>021-SHZL-00437-CRH-201906200909-D.bmp</t>
+          <t>021-SHZL-00357-CHHY-201810311435-D.bmp</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5928917527198792</v>
+        <v>0.2819318175315857</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -730,11 +730,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>021-SHZL-00008-CHZF-201707140943-D.bmp</t>
+          <t>029-XAJD-00260-ZHYJ-201905311544-D.bmp</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.191915363073349</v>
+        <v>0.2674127221107483</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -746,43 +746,43 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>021-SHZL-00247-LY-201807190959-D.bmp</t>
+          <t>0571-ZHJSH-00017-WHY-201807051517-D.bmp</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5470970869064331</v>
+        <v>0.5025088787078857</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0531-SDZL-00088-LP-201912031540-D.bmp</t>
+          <t>029-XAJD-00143-DYL-201807231752-D.bmp</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2796308994293213</v>
+        <v>0.1170500516891479</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>023-CHQSY-00005-TDH-201804081845-D.bmp</t>
+          <t>0571-ZHJSH-00155-LSQ-201809061432-D.bmp</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.728005588054657</v>
+        <v>0.5002048015594482</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -794,14 +794,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00454-JY-201908130942-D.bmp</t>
+          <t>0571-ZHJSH-00234-JYQ-201902220953-D-L.bmp</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.06056752428412437</v>
+        <v>0.7060977816581726</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -810,11 +810,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>010-BJBA-00007-GQY-201709040946-D.bmp</t>
+          <t>021-SHZL-00417-CHY-201903271622-D.bmp</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.516521155834198</v>
+        <v>0.7491553425788879</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -826,27 +826,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>021-SHZL-00195-QCG-201806151000-D.bmp</t>
+          <t>028-CDFE-00197-LFR-202003241014-D.bmp</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4597466886043549</v>
+        <v>0.1726954281330109</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00425-FJL-201907191005-D.bmp</t>
+          <t>022-TJZL-00108-ZLM-201811231514-D.bmp</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2328956723213196</v>
+        <v>0.05271129682660103</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -858,14 +858,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>029-XAJD-00181-LAL-201809171051-D.bmp</t>
+          <t>021-SHZL-00034-WCX-201708170934-D.bmp</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.625660240650177</v>
+        <v>0.4553572833538055</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -874,11 +874,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0531-SDZL-00087-LP-201911281444-D.bmp</t>
+          <t>021-SHZL-00429-XSL-201905221035-D.bmp</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5400292873382568</v>
+        <v>0.8925078511238098</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -890,11 +890,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>021-SHZL-00420-WZY-201903281525-D.bmp</t>
+          <t>021-SHZL-00040-WYP-201708251025-D.bmp</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.8474432229995728</v>
+        <v>0.7120915651321411</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -906,30 +906,30 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>021-SHZL-00406-ZHLY-201902281036-D.bmp</t>
+          <t>0571-ZHJSH-00116-LL-201808240900-D.bmp</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.8669323325157166</v>
+        <v>0.451299637556076</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>029-XAJD-00100-ZHYH-201806261156-D.bmp</t>
+          <t>0571-ZHJSH-00025-XHJ-201807111033-D.bmp</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2908767461776733</v>
+        <v>0.6773558855056763</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -938,11 +938,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00163-HSHZH-201809120952-D.bmp</t>
+          <t>0571-ZHJSH-00022-DMY-201807091031-D-R.bmp</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3330102860927582</v>
+        <v>0.258246123790741</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -954,11 +954,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>022-TJZL-00065-GYE-201810051531-D.bmp</t>
+          <t>021-SHZL-00083-ZHJH-201711081344-D.bmp</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1791232079267502</v>
+        <v>0.3276731073856354</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -970,11 +970,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00089-LSHZH-201808061420-D.bmp</t>
+          <t>023-CHQSY-00022-HCHW-201808221015-D.bmp</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.5327192544937134</v>
+        <v>0.7979907393455505</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -986,11 +986,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>023-CHQSY-00014-WJ-201807060916-D.bmp</t>
+          <t>028-CDFE-00217-RLR-202007281329-D.bmp</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4290864765644073</v>
+        <v>0.03323516622185707</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1002,11 +1002,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>029-XAJD-00211-HL-201811231116-D.bmp</t>
+          <t>0571-ZHJSH-00182-XXM-201809281113-D-R.bmp</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1070996150374413</v>
+        <v>0.09290067106485367</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1018,62 +1018,62 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>021-SHZL-00122-WBF-201801311026-D.bmp</t>
+          <t>029-XAJD-00072-HXN-201806131030-D.bmp</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.8180208206176758</v>
+        <v>0.3255432844161987</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>021-SHZL-00470-LWF-201908301420-D.bmp</t>
+          <t>028-CDFE-00206-CHQF-202005111335-D.bmp</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9100100994110107</v>
+        <v>0.4035049378871918</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>029-XAJD-00259-WBJ-201905311529-D.bmp</t>
+          <t>021-SHZL-00242-ZHL-201807171404-D.bmp</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2887823581695557</v>
+        <v>0.1612575948238373</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00030-SHFF-201807120950-D.bmp</t>
+          <t>0571-ZHJSH-00348-PXQ-201906180932-D.bmp</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01888876408338547</v>
+        <v>0.5168542861938477</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1082,14 +1082,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>021-SHZL-00091-LYQ-201711241117-D.bmp</t>
+          <t>028-CDFE-00102-WSHQ-201906271410-D.bmp</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.7359989285469055</v>
+        <v>0.2857955396175385</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1098,11 +1098,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>021-SHZL-00211-LCHY-201806261406-D.bmp</t>
+          <t>021-SHZL-00443-TQJ-201906281100-D.bmp</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.6813910007476807</v>
+        <v>0.623309314250946</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -1114,14 +1114,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>021-SHZL-00260-ZHGP-201807311431-D.bmp</t>
+          <t>021-SHZL-00125-TCHY-201802011138-D.bmp</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.692655622959137</v>
+        <v>0.4689148962497711</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1130,11 +1130,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>029-XAJD-00186-ZHLJ-201809260835-D.bmp</t>
+          <t>028-CDEF-00187-FQ-202001211433-D.bmp</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2688578367233276</v>
+        <v>0.183469370007515</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1146,11 +1146,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00137-ZHXE-201808310940-D.bmp</t>
+          <t>0571-ZHJSH-00030-SHFF-201807120950-D.bmp</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1755742728710175</v>
+        <v>0.1029828563332558</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1162,43 +1162,43 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>021-SHZL-00166-ZHYZ-201804271021-D.bmp</t>
+          <t>0571-ZHJSH-00362-SHHX-201906241007-D.bmp</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.8656181693077087</v>
+        <v>0.231823518872261</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00321-WFM-201906061009-D.bmp</t>
+          <t>022-TJZL-00047-MMY-201806261543-D.bmp</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.6925384998321533</v>
+        <v>0.6643170714378357</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>029-XAJD-00075-BYZH-201806140935-D.bmp</t>
+          <t>0571-ZHJSH-00272-CHGL-201904251000-D.bmp</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1725638508796692</v>
+        <v>0.2446432262659073</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1210,11 +1210,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>029-XAJD-00172-YHY-201808291133-D.bmp</t>
+          <t>0571-ZHJSH-00186-WTG-201810181143-D-L.bmp</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.8825802803039551</v>
+        <v>0.5145149827003479</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -1226,11 +1226,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>029-XAJD-00165-GCHX-201808151555-D.bmp</t>
+          <t>0571-ZHJSH-00019-HPX-201807090946-D-R.bmp</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.8221783638000488</v>
+        <v>0.7374951839447021</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -1242,30 +1242,30 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>028-CDFE-00165-YHM-201911121111-D.bmp</t>
+          <t>021-SHZL-00283-HYQ-201808130841-D.bmp</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3537538945674896</v>
+        <v>0.5914999842643738</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>021-SHZL-00084-CHYM-201711080842-D.bmp</t>
+          <t>0571-ZHJSH-00144-HYL-201809061221-D-R.bmp</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9037626981735229</v>
+        <v>0.3902516663074493</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1274,43 +1274,43 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>021-SHZL-00006-WL-201707140849-D.bmp</t>
+          <t>021-SHZL-00093-HL-201712111219-D.bmp</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0619128905236721</v>
+        <v>0.5651748180389404</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>021-SHZL-00277-HXY-201808081037-D.bmp</t>
+          <t>0571-ZHJSH-00392-XLY-201907080929-D.bmp</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9675068855285645</v>
+        <v>0.1362957805395126</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>028-CDFE-00205-XL-202005091040-D.bmp</t>
+          <t>0571-ZHJSH-00188-XJQ-201810251223-D.bmp</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.05803012847900391</v>
+        <v>0.3601166307926178</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1322,27 +1322,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>028-CDFE-00086-LSHQ-201905141544-D.bmp</t>
+          <t>022-TJZL-00065-GYE-201810051531-D.bmp</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.5964928865432739</v>
+        <v>0.4946936964988708</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0531-SDZL-00009-LDD-201809110837-D.bmp</t>
+          <t>029-XAJD-00258-CHHF-201905311503-D.bmp</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2545435130596161</v>
+        <v>0.2976077795028687</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1354,11 +1354,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>021-SHZL-00411-ZSHJ-201903010940-D.bmp</t>
+          <t>0571-ZHJSH-00032-ZHHZH-201807121135-D.bmp</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.3864665925502777</v>
+        <v>0.3264335095882416</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1370,14 +1370,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00409-DMF-201907160946-D.bmp</t>
+          <t>0571-ZHJSH-00433-DSHY-201907221100-D.bmp</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.5755876302719116</v>
+        <v>0.09132145345211029</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1386,27 +1386,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>028-CDFE-00194-QQ-202003240831-D.bmp</t>
+          <t>029-XAJD-00035-YWF-201805161140-D.bmp</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.07676231861114502</v>
+        <v>0.6834563612937927</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>022-TJZL-00047-MMY-201806261543-D.bmp</t>
+          <t>021-SHZL-00430-LJL-201905221045-D.bmp</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.843119740486145</v>
+        <v>0.692244827747345</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1418,11 +1418,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00082-WY-201808070958-D-R.bmp</t>
+          <t>029-CDFE-00065-YJ-201903251436-D-R.bmp</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1163801401853561</v>
+        <v>0.04082994163036346</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1434,27 +1434,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00260-HYY-201903251020-D.bmp</t>
+          <t>021-SHZL-00188-HJ-201806081517-D.bmp</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.138769119977951</v>
+        <v>0.92995685338974</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>029-XAJD-00311-HXD-201911051539-D.bmp</t>
+          <t>0531-SDZL-00009-LDD-201809110837-D.bmp</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1236145496368408</v>
+        <v>0.2421443313360214</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1466,11 +1466,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>021-SHZL-00433-GHF-201905241401-D.bmp</t>
+          <t>0571-ZHJSH-00236-XMY-201902250956-D.bmp</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.7130823731422424</v>
+        <v>0.5214375257492065</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -1482,43 +1482,43 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>028-CDFE-00113-GYQ-201907301313-D.bmp</t>
+          <t>021-SHZL-00277-HXY-201808081037-D.bmp</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2179781645536423</v>
+        <v>0.8821839690208435</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00417-QHD-201907171119-D.bmp</t>
+          <t>021-SHZL-00426-SHML-201905200946-D.bmp</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9482244849205017</v>
+        <v>0.6898137927055359</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0531-SDZL-00058-FQX-201905271554-D.bmp</t>
+          <t>0531-SDZL-00110-WH-202007302606-D.bmp</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.2829469442367554</v>
+        <v>0.1585309058427811</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1530,27 +1530,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>028-CDFE-00100-CHJ-201906251138-D.bmp</t>
+          <t>0571-ZHJSH-00051-ZHAF-201807190951-D-L.bmp</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.03345634043216705</v>
+        <v>0.1630967557430267</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00111-LLJ-201808231047-D.bmp</t>
+          <t>0571-ZHJSH-00196-SHJL-201811011109-D.bmp</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1882307380437851</v>
+        <v>0.1650877892971039</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1562,11 +1562,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00176-ZHXJ-201809261042-D.bmp</t>
+          <t>0571-ZHJSH-00012-PHQ-201807031722-D.bmp</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.5540336966514587</v>
+        <v>0.51792311668396</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1578,14 +1578,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>021-SHZL-00164-HY-201804251158-D.bmp</t>
+          <t>0571-ZHJSH-00082-WY-201808070958-D-R.bmp</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.8482280373573303</v>
+        <v>0.1720526367425919</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1594,46 +1594,46 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0531-SDZL-00113-YR-202008251559-D.bmp</t>
+          <t>021-SHZL-00104-MYF-201712190850-D.bmp</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.08138909190893173</v>
+        <v>0.8951262831687927</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>021-SHZL-00428-LSM-201905211048-D.bmp</t>
+          <t>0571-ZHJSH-00279-CHXH-201905031035-D.bmp</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.3603160083293915</v>
+        <v>0.1175437569618225</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>029-XAJD-00119-SQ-201807101108-D.bmp</t>
+          <t>028-CDFE-00168-WLF-201911181441-D-L.bmp</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.5559741258621216</v>
+        <v>0.4472239315509796</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1642,11 +1642,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>029-XAJD-00035-YWF-201805161140-D.bmp</t>
+          <t>021-SHZL-00406-ZHLY-201902281036-D.bmp</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.834452748298645</v>
+        <v>0.9223942160606384</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1658,14 +1658,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>022-TJZL-00023-QXW-201712181528-D.bmp</t>
+          <t>0531-SDZL-00087-LP-201911281444-D.bmp</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.5512850284576416</v>
+        <v>0.1884385943412781</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -1674,43 +1674,43 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00343-YML-201906170916-D.bmp</t>
+          <t>021-SHZL-00420-WZY-201903281525-D.bmp</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.4553617238998413</v>
+        <v>0.640998899936676</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>021-SHZL-00072-YH-201710270945-D.bmp</t>
+          <t>0571-ZHJSH-00340-LLP-201906140920-D.bmp</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.5400763750076294</v>
+        <v>0.8477657437324524</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00272-CHGL-201904251000-D.bmp</t>
+          <t>0571-ZHJSH-00056-ZHXP-201807230949-D.bmp</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.3127099275588989</v>
+        <v>0.1120866388082504</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1722,11 +1722,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>021-SHZL-00429-XSL-201905221035-D.bmp</t>
+          <t>021-SHZL-00150-FPP-201804101358-D.bmp</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.8754734396934509</v>
+        <v>0.5637996196746826</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -1738,14 +1738,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>028-CDEF-00191-YM-202003050943-D.bmp</t>
+          <t>021-SHZL-00433-GHF-201905241401-D.bmp</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1429050266742706</v>
+        <v>0.6559386849403381</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1754,17 +1754,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0531-SDZL-00072-HZHQ-2019081315447-D.bmp</t>
+          <t>029-XAJD-00160-ZHDL-201808071648-D.bmp</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.6599072813987732</v>
+        <v>0.2325759828090668</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.5388695597648621</v>
+        <v>0.1650723665952682</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -1786,46 +1786,46 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00348-PXQ-201906180932-D.bmp</t>
+          <t>021-SHZL-00103-MYX-201712181506-D.bmp</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.314565122127533</v>
+        <v>0.7170297503471375</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>029-XAJD-00132-YLJ-201807181116-D.bmp</t>
+          <t>0531-SDZL-00072-HZHQ-2019081315447-D.bmp</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1392590999603271</v>
+        <v>0.7931646704673767</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00017-WHY-201807051517-D.bmp</t>
+          <t>0571-ZHJSH-00376-ZHJF-201907011102-D.bmp</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.5895473957061768</v>
+        <v>0.1083192899823189</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -1834,11 +1834,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00275-XXQ-201904290913-D.bmp</t>
+          <t>022-TJZL-00023-QXW-201712181528-D.bmp</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.594734251499176</v>
+        <v>0.6985129117965698</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
@@ -1850,11 +1850,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>028-CDFE-00206-CHQF-202005111335-D.bmp</t>
+          <t>029-XAJD-00200-WXH-201811091536-D.bmp</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1566217541694641</v>
+        <v>0.2407865971326828</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -1866,11 +1866,11 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00180-TJM-201809271008-D.bmp</t>
+          <t>029-XAJD-00119-SQ-201807101108-D.bmp</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.2219096273183823</v>
+        <v>0.04967604577541351</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -1882,27 +1882,27 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>021-SHZL-00283-HYQ-201808130841-D.bmp</t>
+          <t>021-SHZL-00003-HYM-201707131339-D.bmp</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.2889840304851532</v>
+        <v>0.6882875561714172</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0531-SDZL-00078-ZHYL-201910081036-D.bmp</t>
+          <t>021-SHZL-00072-YH-201710270945-D.bmp</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.2568509578704834</v>
+        <v>0.387085884809494</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1914,75 +1914,75 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>028-CDFE-00197-LFR-202003241014-D.bmp</t>
+          <t>021-SHZL-00231-SLZH-201807120937-D.bmp</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.1102647259831429</v>
+        <v>0.2701446115970612</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>028-CDFE-00122-CHX-201908291306-D.bmp</t>
+          <t>0571-ZHJSH-00010-XNQ-201807031418-D.bmp</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.8912451863288879</v>
+        <v>0.07156231254339218</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>021-SHZL-00040-WYP-201708251025-D.bmp</t>
+          <t>029-XAJD-00211-HL-201811231116-D.bmp</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.8400706648826599</v>
+        <v>0.04310473427176476</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00120-WJJ-201808241238-D-L.bmp</t>
+          <t>021-SHZL-00195-QCG-201806151000-D.bmp</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.6677230596542358</v>
+        <v>0.6114233732223511</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00056-ZHXP-201807230949-D.bmp</t>
+          <t>0571-ZHJSH-00436-WGF-201907230926-D.bmp</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1300247758626938</v>
+        <v>0.05969097092747688</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -1994,11 +1994,11 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>021-SHZL-00155-GCHQ-201804121632-D.bmp</t>
+          <t>021-SHZL-00070-CHJF-201710231512-D.bmp</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.8151817917823792</v>
+        <v>0.9535776376724243</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -2010,11 +2010,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>028-CDFE-00144-YY-201910180925-D.bmp</t>
+          <t>021-SHZL-00085-ZHJ-201711081326-D.bmp</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.3477145433425903</v>
+        <v>0.09837278723716736</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -2026,11 +2026,11 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00258-ZHLT-201903190936-D.bmp</t>
+          <t>028-CDEF-00135-XQ-201909161432-D.bmp</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.365390419960022</v>
+        <v>0.1827071756124496</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -2042,27 +2042,27 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>029-XAJD-00197-MYZ-201811051529-D.bmp</t>
+          <t>0571-ZHJSH-00384-ZHYM-201907041007-D.bmp</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.1597342044115067</v>
+        <v>0.1683698296546936</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>023-CHQSY-00022-HCHW-201808221015-D.bmp</t>
+          <t>0571-ZHJSH-00180-TJM-201809271008-D.bmp</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.2120204120874405</v>
+        <v>0.2052429169416428</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -2074,11 +2074,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>021-SHZL-00102-SYP-201712181320-D.bmp</t>
+          <t>0311-SJZFY-00002-DQZH-201806111131-D-L.bmp</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.6282486915588379</v>
+        <v>0.7334022521972656</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -2090,27 +2090,27 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>021-SHZL-00255-WL-201807261001-D.bmp</t>
+          <t>0311-SJZFY-00009-LYL-201901151120-D-L.bmp</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9166988730430603</v>
+        <v>0.7115169763565063</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>029-XAJD-00242-GMR-201903270846-D.bmp</t>
+          <t>029-CDFE-00077-YHR-201904281428-D.bmp</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.3525044023990631</v>
+        <v>0.3564054369926453</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -2122,59 +2122,59 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>021-SHZL-00314-YYH-201808301126-D.bmp</t>
+          <t>0531-SDZL-00058-FQX-201905271554-D.bmp</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.06881779432296753</v>
+        <v>0.3803067207336426</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>029-XAJD-00171-YL-201808291030-D.bmp</t>
+          <t>0571-ZHJSH-00023-CBJ-201807101713-D.bmp</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.3544399440288544</v>
+        <v>0.7486574649810791</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>029-XAJD-00160-ZHDL-201808071648-D.bmp</t>
+          <t>021-SHZL-00412-WJH-201903111603-D.bmp</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.2038566619157791</v>
+        <v>0.7664408683776855</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>022-TJZL-00108-ZLM-201811231514-D.bmp</t>
+          <t>0311-SJZFY-00013-JXJ-201904221150-D.bmp</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.3288075923919678</v>
+        <v>0.06318458914756775</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -2186,27 +2186,27 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0531-SDZL-00110-WH-202007302606-D.bmp</t>
+          <t>028-CDFE-00030-LJ-201902131015-D.bmp</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.6509776711463928</v>
+        <v>0.158782109618187</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>0531-SDZL-00075-LY-201909101424-DZ.bmp</t>
+          <t>028-CDFE-00090-ZHT-201906180828-D.bmp</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.2549168765544891</v>
+        <v>0.2530548274517059</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -2218,11 +2218,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>029-XAJD-00200-WXH-201811091536-D.bmp</t>
+          <t>0571-ZHJSH-00049-GSHL-201807181104-D.bmp</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.2474950104951859</v>
+        <v>0.2118766456842422</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -2234,11 +2234,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>028-CDFE-00118-WJM-201908081530-D.bmp</t>
+          <t>028-CDFE-00196-ZHDF-202003241008-D.bmp</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.05561147257685661</v>
+        <v>0.2752356827259064</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -2250,11 +2250,11 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0311-SJZFY-00002-DQZH-201806111131-D-L.bmp</t>
+          <t>028-CDEF-00191-YM-202003050943-D.bmp</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.3236264884471893</v>
+        <v>0.1948802024126053</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -2266,14 +2266,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>029-CDFE-00018-LQ-201901141344-D.bmp</t>
+          <t>0571-ZHJSH-00073-SQX-201807301015-D.bmp</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.4578678011894226</v>
+        <v>0.5028467774391174</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -2282,27 +2282,27 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>028-CDEF-00140-LF-201909180910-D.bmp</t>
+          <t>0531-SDZL-00008-SHYCH-201809100845-D.bmp</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.5179784893989563</v>
+        <v>0.8819459080696106</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>021-SHZL-00116-LFM-201801290845-D.bmp</t>
+          <t>023-CHQSY-00037-LDR-201903221109-D-R.bmp</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.6867773532867432</v>
+        <v>0.893231987953186</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
@@ -2314,11 +2314,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00032-ZHHZH-201807121135-D.bmp</t>
+          <t>0571-ZHJSH-00191-RDM-201810291053-D.bmp</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.2493631988763809</v>
+        <v>0.1225889697670937</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -2330,14 +2330,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>021-SHZL-00404-JLQ-201902280931-D.bmp</t>
+          <t>0571-ZHJSH-00282-HDM-201905070959-D.bmp</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.8482300043106079</v>
+        <v>0.2687340676784515</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2346,27 +2346,27 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>021-SHZL-00458-XXL-201907311054-D.bmp</t>
+          <t>029-CDFE-00047-LCHH-201902270954-D.bmp</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.9766467213630676</v>
+        <v>0.646001935005188</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>029-CDFE-00046-QJW-201902261627-D.bmp</t>
+          <t>029-XAJD-00054-GWL-201805300818-D.bmp</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.4123530089855194</v>
+        <v>0.01129450462758541</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2378,14 +2378,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>028-CDFE-00093-ZHZHH-201906191018-D.bmp</t>
+          <t>0571-ZHJSH-00089-LSHZH-201808061420-D.bmp</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.3681857287883759</v>
+        <v>0.5718826651573181</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -2394,11 +2394,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00421-HJQ-201907190911-D.bmp</t>
+          <t>0571-ZHJSH-00371-MLQ-201906280940-D.bmp</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.2927655279636383</v>
+        <v>0.3599019646644592</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2410,14 +2410,14 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00447-LHZH-201908051157-D.bmp</t>
+          <t>0571-ZHJSH-00120-WJJ-201808241238-D-L.bmp</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.0858897790312767</v>
+        <v>0.8211268186569214</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -2426,30 +2426,30 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00196-SHJL-201811011109-D.bmp</t>
+          <t>0571-ZHJSH-00341-ZHYF-201906141045-D.bmp</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.1958661079406738</v>
+        <v>0.01569870486855507</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00025-XHJ-201807111033-D.bmp</t>
+          <t>0571-ZHJSH-00035-HJY-201807121224-D-R.bmp</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.2023473232984543</v>
+        <v>0.6174991726875305</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -2458,91 +2458,91 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>029-XAJD-00069-JYQ-201806130854-D.bmp</t>
+          <t>0571-ZHJSH-00314-YFF-201906031346-D.bmp</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.1210340112447739</v>
+        <v>0.4927777051925659</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>021-SHZL-00417-CHY-201903271622-D.bmp</t>
+          <t>021-SHZL-00116-LFM-201801290845-D.bmp</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.7552303075790405</v>
+        <v>0.7704817056655884</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00167-XLL-201809181003-D-R.bmp</t>
+          <t>021-SHZL-00024-CHXW-201708100945-D.bmp</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.2835425436496735</v>
+        <v>0.7782074213027954</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>028-CDEF-00175-YYJ-201912241613-D.bmp</t>
+          <t>021-SHZL-00076-HJH-201711030913-D.bmp</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.1104676127433777</v>
+        <v>0.7226943373680115</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>021-SHZL-00396-CHGM-201812291147-D.bmp</t>
+          <t>028-CDFE-00165-YHM-201911121111-D.bmp</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.4992816150188446</v>
+        <v>0.4191709458827972</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00301-ZHY-201905171046-D.bmp</t>
+          <t>028-CDFE-00194-QQ-202003240831-D.bmp</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.509114682674408</v>
+        <v>0.5739213824272156</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -2554,30 +2554,30 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>021-SHZL-00076-HJH-201711030913-D.bmp</t>
+          <t>029-XAJD-00310-DXM-201911011539-D.bmp</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.3478561639785767</v>
+        <v>0.04501345008611679</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>029-XAJD-00243-LR-201905051110-D.bmp</t>
+          <t>022-TJZL-00034-CHWH-201803261531-D.bmp</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.2965538501739502</v>
+        <v>0.8558104634284973</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -2586,30 +2586,30 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>0531-SDZL-00121-SQL-202011181537-D.bmp</t>
+          <t>028-CDFE-00099-LXQ-201906251127-D-L.bmp</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.1869974881410599</v>
+        <v>0.2729267776012421</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00312-BH-201906030956-D.bmp</t>
+          <t>0571-ZHJSH-00163-HSHZH-201809120952-D.bmp</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.5759651064872742</v>
+        <v>0.0227284450083971</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -2618,14 +2618,14 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>021-SHZL-00024-CHXW-201708100945-D.bmp</t>
+          <t>022-TJZL-00037-ZHGL-201805031504-D.bmp</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.4063594937324524</v>
+        <v>0.730781614780426</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -2634,30 +2634,30 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>022-TJZL-00037-ZHGL-201805031504-D.bmp</t>
+          <t>029-CDFE-00068-GJR-201904021532-D.bmp</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.7800362110137939</v>
+        <v>0.01893974654376507</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00058-ZHFD-201807231035-D-L.bmp</t>
+          <t>028-CDFE-00122-CHX-201908291306-D.bmp</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.09992140531539917</v>
+        <v>0.8581657409667969</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -2666,11 +2666,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>029-CDFE-00065-YJ-201903251436-D-R.bmp</t>
+          <t>0571-ZHJSH-00058-ZHFD-201807231035-D-L.bmp</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.1299896687269211</v>
+        <v>0.2917759120464325</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -2682,11 +2682,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00413-JJF-201907161048-D.bmp</t>
+          <t>021-SHZL-00102-SYP-201712181320-D.bmp</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.5613189935684204</v>
+        <v>0.7695536613464355</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -2698,27 +2698,27 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>021-SHZL-00108-ZHDR-201801051559-D.bmp</t>
+          <t>029-XAJD-00069-JYQ-201806130854-D.bmp</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.8261212110519409</v>
+        <v>0.5184451937675476</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00283-FXF-201905071007-D.bmp</t>
+          <t>029-CDFE-00050-HNY-201903071618-D.bmp</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.1716251373291016</v>
+        <v>0.01037712395191193</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2730,11 +2730,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>021-SHZL-00103-MYX-201712181506-D.bmp</t>
+          <t>0571-ZHJSH-00275-XXQ-201904290913-D.bmp</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.4618923366069794</v>
+        <v>0.2262949794530869</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2746,14 +2746,14 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00450-ZHKL-201908090801-D.bmp</t>
+          <t>029-XAJD-00186-ZHLJ-201809260835-D.bmp</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.305277943611145</v>
+        <v>0.7625585794448853</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -2762,27 +2762,27 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>021-SHZL-00363-XHM-201811051324-D.bmp</t>
+          <t>021-SHZL-00404-JLQ-201902280931-D.bmp</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.3681713044643402</v>
+        <v>0.9102453589439392</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>021-SHZL-00369-ZHL-201811151050-D.bmp</t>
+          <t>021-SHZL-00423-WHZH-201905051411-D.bmp</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.5724358558654785</v>
+        <v>0.8359946012496948</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
@@ -2794,30 +2794,30 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>022-TJZL-00083-LWY-201811141417-D.bmp</t>
+          <t>028-CDFE-00207-WT-202005121004-D.bmp</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.8263747692108154</v>
+        <v>0.145783320069313</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>028-CDFE-00090-ZHT-201906180828-D.bmp</t>
+          <t>021-SHZL-00407-FYCH-201902281444-D.bmp</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.2811497151851654</v>
+        <v>0.6984555125236511</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -2826,11 +2826,11 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>028-CDFE-00082-SHYR-201905091400-D.bmp</t>
+          <t>0571-ZHJSH-00425-FJL-201907191005-D.bmp</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.4294045269489288</v>
+        <v>0.1591672003269196</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2842,11 +2842,11 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00362-SHHX-201906241007-D.bmp</t>
+          <t>0571-ZHJSH-00207-ZHJX-201812071532-D.bmp</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.1925797462463379</v>
+        <v>0.1148601472377777</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2858,14 +2858,14 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00279-CHXH-201905031035-D.bmp</t>
+          <t>028-CDEF-00114-HQQ-201908020950-D.bmp</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.41286900639534</v>
+        <v>0.6029753088951111</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -2874,14 +2874,14 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00012-PHQ-201807031722-D.bmp</t>
+          <t>029-XAJD-00243-LR-201905051110-D.bmp</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.7845057249069214</v>
+        <v>0.4548849165439606</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -2890,14 +2890,14 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0311-SJZFY-00013-JXJ-201904221150-D.bmp</t>
+          <t>0571-ZHJSH-00087-ZXL-201808060944-D.bmp</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.2904254198074341</v>
+        <v>0.8894643783569336</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -2906,14 +2906,14 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>021-SHZL-00407-FYCH-201902281444-D.bmp</t>
+          <t>029-XAJD-00148-WX-201807261131-D.bmp</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.5220683217048645</v>
+        <v>0.02664998359978199</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -2922,14 +2922,14 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>028-CDFE-00217-RLR-202007281329-D.bmp</t>
+          <t>021-SHZL-00008-CHZF-201707140943-D.bmp</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.1971298009157181</v>
+        <v>0.6378788948059082</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -2938,78 +2938,78 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>021-SHZL-00386-SSHL-201812181503-D.bmp</t>
+          <t>021-SHZL-00189-SHYH-201806121134-D.bmp</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.09393665939569473</v>
+        <v>0.6973212361335754</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>021-SHZL-00044-CHHJ-201708301554-D.bmp</t>
+          <t>029-CDFE-00017-CZHY-201901101113-D.bmp</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.6127923130989075</v>
+        <v>0.5676647424697876</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>021-SHZL-00083-ZHJH-201711081344-D.bmp</t>
+          <t>0571-ZHJSH-00447-LHZH-201908051157-D.bmp</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.3573626279830933</v>
+        <v>0.03971002623438835</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00202-CHJF-201811211120-D.bmp</t>
+          <t>021-SHZL-00044-CHHJ-201708301554-D.bmp</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.8184629082679749</v>
+        <v>0.353064626455307</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>021-SHZL-00034-WCX-201708170934-D.bmp</t>
+          <t>028-CDEF-00153-YY-201910291453-D.bmp</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.5579125881195068</v>
+        <v>0.3017849624156952</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -3018,30 +3018,30 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>029-XAJD-00310-DXM-201911011539-D.bmp</t>
+          <t>021-SHZL-00241-CXF-201807170913-D.bmp</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.0924370139837265</v>
+        <v>0.7498487234115601</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>029-XAJD-00148-WX-201807261131-D.bmp</t>
+          <t>021-SHZL-00314-YYH-201808301126-D.bmp</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.08245901018381119</v>
+        <v>0.6026636958122253</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -3050,27 +3050,27 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>028-CDFE-00099-LXQ-201906251127-D-L.bmp</t>
+          <t>021-SHZL-00108-ZHDR-201801051559-D.bmp</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.2150760740041733</v>
+        <v>0.8220023512840271</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00144-HYL-201809061221-D-R.bmp</t>
+          <t>0571-ZHJSH-00260-HYY-201903251020-D.bmp</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.3659165799617767</v>
+        <v>0.06588521599769592</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -3082,43 +3082,43 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>021-SHZL-00184-CMZH-201806061107-D.bmp</t>
+          <t>029-CDFE-00022-LX-201901151400-D.bmp</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.7866032719612122</v>
+        <v>0.182834193110466</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00023-CBJ-201807101713-D.bmp</t>
+          <t>0571-ZHJSH-00435-YFY-201907230858-D.bmp</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.421668142080307</v>
+        <v>0.4908052086830139</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00191-RDM-201810291053-D.bmp</t>
+          <t>029-XAJD-00311-HXD-201911051539-D.bmp</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.05369047075510025</v>
+        <v>0.1877938061952591</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -3130,14 +3130,14 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>021-SHZL-00313-CHXX-201808301117-D.bmp</t>
+          <t>021-SHZL-00155-GCHQ-201804121632-D.bmp</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.1782088875770569</v>
+        <v>0.8136187791824341</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -3146,14 +3146,14 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00392-XLY-201907080929-D.bmp</t>
+          <t>0571-ZHJSH-00417-QHD-201907171119-D.bmp</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.3176167607307434</v>
+        <v>0.6067139506340027</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -3162,91 +3162,91 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00445-ZXH-201908021019-D.bmp</t>
+          <t>021-SHZL-00386-SSHL-201812181503-D.bmp</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.4469780027866364</v>
+        <v>0.07049400359392166</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>029-XAJD-00178-ZHMD-201809120940-D.bmp</t>
+          <t>028-CDFE-00158-ZHY-201911051152-D.bmp</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.06674107909202576</v>
+        <v>0.2407085448503494</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>028-CDFE-00196-ZHDF-202003241008-D.bmp</t>
+          <t>021-SHZL-00260-ZHGP-201807311431-D.bmp</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.2371639609336853</v>
+        <v>0.7939876317977905</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>028-CDFE-00216-YFM-202007161432-D.bmp</t>
+          <t>021-SHZL-00255-WL-201807261001-D.bmp</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.3185608685016632</v>
+        <v>0.6484774947166443</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00073-SQX-201807301015-D.bmp</t>
+          <t>021-SHZL-00363-XHM-201811051324-D.bmp</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.2934345901012421</v>
+        <v>0.5771216750144958</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00266-ZHYX-201904230954-D.bmp</t>
+          <t>029-CDFE-00018-LQ-201901141344-D.bmp</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.2487157732248306</v>
+        <v>0.4665095210075378</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -3258,11 +3258,11 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>029-XAJD-00114-GJF-201807091012-D.bmp</t>
+          <t>0571-ZHJSH-00129-ZHCHP-201808281448-D.bmp</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.1325297206640244</v>
+        <v>0.07591119408607483</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -3274,43 +3274,43 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>028-CDEF-00187-FQ-202001211433-D.bmp</t>
+          <t>021-SHZL-00396-CHGM-201812291147-D.bmp</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.1340739727020264</v>
+        <v>0.6583120226860046</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00116-LL-201808240900-D.bmp</t>
+          <t>021-SHZL-00236-ZHLY-201807160911-D.bmp</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.1820164322853088</v>
+        <v>0.7071964740753174</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00122-WNY-201808270959-D.bmp</t>
+          <t>029-XAJD-00259-WBJ-201905311529-D.bmp</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.3610862791538239</v>
+        <v>0.4723028242588043</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -3322,43 +3322,43 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00415-HLH-201907171034-D.bmp</t>
+          <t>029-XAJD-00061-CHY-201806070846-D.bmp</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.4315376281738281</v>
+        <v>0.2174472063779831</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00022-DMY-201807091031-D-R.bmp</t>
+          <t>021-SHZL-00074-XXX-201711011518-D.bmp</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.07480399310588837</v>
+        <v>0.6652982234954834</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>028-CDEF-00153-YY-201910291453-D.bmp</t>
+          <t>0571-ZHJSH-00283-FXF-201905071007-D.bmp</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.3016814589500427</v>
+        <v>0.090788334608078</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -3370,30 +3370,30 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>021-SHZL-00085-ZHJ-201711081326-D.bmp</t>
+          <t>021-SHZL-00164-HY-201804251158-D.bmp</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.1026787683367729</v>
+        <v>0.8633931875228882</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>021-SHZL-00121-XJF-201801310949-D.bmp</t>
+          <t>028-CDEF-00148-ZRY-201910221540-D.bmp</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.9303652048110962</v>
+        <v>0.1978880614042282</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -3402,46 +3402,46 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>021-SHZL-00150-FPP-201804101358-D.bmp</t>
+          <t>028-CDFE-00086-LSHQ-201905141544-D.bmp</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.3740528225898743</v>
+        <v>0.6549757719039917</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>021-SHZL-00242-ZHL-201807171404-D.bmp</t>
+          <t>0571-ZHJSH-00002-CHHY-201806261723-D.bmp</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.2292949706315994</v>
+        <v>0.259176641702652</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>028-CDFE-00207-WT-202005121004-D.bmp</t>
+          <t>0571-ZHJSH-00450-ZHKL-201908090801-D.bmp</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.04786724597215652</v>
+        <v>0.7485175728797913</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -3450,59 +3450,59 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>021-SHZL-00236-ZHLY-201807160911-D.bmp</t>
+          <t>0571-ZHJSH-00312-BH-201906030956-D.bmp</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.3186881244182587</v>
+        <v>0.182745948433876</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>028-CDFE-00186-ZHJ-202001171324-D.bmp</t>
+          <t>021-SHZL-00458-XXL-201907311054-D.bmp</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.2156238555908203</v>
+        <v>0.8565961122512817</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00316-ZHLCH-201906040935-D.bmp</t>
+          <t>0571-ZHJSH-00415-HLH-201907171034-D.bmp</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.4596014022827148</v>
+        <v>0.169286698102951</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>029-CDFE-00079-ZHJ-2019051403-D.bmp</t>
+          <t>029-XAJD-00271-WJ-201907121048-D.bmp</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.07259268313646317</v>
+        <v>0.4250858724117279</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -3514,11 +3514,11 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00010-XNQ-201807031418-D.bmp</t>
+          <t>010-BJBA-00007-GQY-201709040946-D.bmp</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.2156253159046173</v>
+        <v>0.2181991785764694</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -3530,27 +3530,27 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00341-ZHYF-201906141045-D.bmp</t>
+          <t>0571-ZHJSH-00421-HJQ-201907190911-D.bmp</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.2174798399209976</v>
+        <v>0.03138301149010658</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>028-CDFE-00133-ZHN-201909110834-D.bmp</t>
+          <t>0531-SDZL-00113-YR-202008251559-D.bmp</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.056881383061409</v>
+        <v>0.3625360131263733</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -3562,46 +3562,46 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>021-SHZL-00070-CHJF-201710231512-D.bmp</t>
+          <t>029-XAJD-00051-XXY-201805280952-D-R.bmp</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.8845912218093872</v>
+        <v>0.1308493763208389</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>021-SHZL-00275-ZHMY-201808071321-D.bmp</t>
+          <t>029-XAJD-00114-GJF-201807091012-D.bmp</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.905711829662323</v>
+        <v>0.09521139413118362</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>029-CDFE-00017-CZHY-201901101113-D.bmp</t>
+          <t>028-CDFE-00186-ZHJ-202001171324-D.bmp</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.5357469320297241</v>
+        <v>0.06238746643066406</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -3610,11 +3610,11 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>029-XAJD-00143-DYL-201807231752-D.bmp</t>
+          <t>028-CDFE-00082-SHYR-201905091400-D.bmp</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.05098783597350121</v>
+        <v>0.2567118108272552</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -3626,11 +3626,11 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>0531-SDZL-00008-SHYCH-201809100845-D.bmp</t>
+          <t>021-SHZL-00313-CHXX-201808301117-D.bmp</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.7572777271270752</v>
+        <v>0.9068124294281006</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -3642,14 +3642,14 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00011-YJY-201807031713-D.bmp</t>
+          <t>0571-ZHJSH-00266-ZHYX-201904230954-D.bmp</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.2101536393165588</v>
+        <v>0.6232386827468872</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
@@ -3658,14 +3658,14 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>029-XAJD-00296-YMH-201910230829-D.bmp</t>
+          <t>029-XAJD-00172-YHY-201808291133-D.bmp</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.1018039211630821</v>
+        <v>0.5244526267051697</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -3674,107 +3674,107 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>021-SHZL-00241-CXF-201807170913-D.bmp</t>
+          <t>0571-ZHJSH-00137-ZHXE-201808310940-D.bmp</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.8489658832550049</v>
+        <v>0.2800121605396271</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>029-CDFE-00022-LX-201901151400-D.bmp</t>
+          <t>0571-ZHJSH-00127-CHHY-201808271510-D.bmp</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.4484243392944336</v>
+        <v>0.06340066343545914</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00452-WSQ-201908130826-D.bmp</t>
+          <t>028-CDFE-00113-GYQ-201907301313-D.bmp</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.1148169115185738</v>
+        <v>0.08922757208347321</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>028-CDFE-00158-ZHY-201911051152-D.bmp</t>
+          <t>021-SHZL-00428-LSM-201905211048-D.bmp</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.4000678360462189</v>
+        <v>0.1785892695188522</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>021-SHZL-00074-XXX-201711011518-D.bmp</t>
+          <t>0571-ZHJSH-00330-YGE-201906110958-D.bmp</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.5937597751617432</v>
+        <v>0.3480436503887177</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00330-YGE-201906110958-D.bmp</t>
+          <t>021-SHZL-00184-CMZH-201806061107-D.bmp</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.2312359064817429</v>
+        <v>0.7901208996772766</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>029-CDFE-00077-YHR-201904281428-D.bmp</t>
+          <t>029-XAJD-00075-BYZH-201806140935-D.bmp</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.2191727012395859</v>
+        <v>0.03362400084733963</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -3786,14 +3786,14 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00314-YFF-201906031346-D.bmp</t>
+          <t>0531-SDZL-00121-SQL-202011181537-D.bmp</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.9421898126602173</v>
+        <v>0.1764685064554214</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D210" t="n">
         <v>1</v>
@@ -3802,43 +3802,43 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>029-CDFE-00047-LCHH-201902270954-D.bmp</t>
+          <t>021-SHZL-00146-HJF-201804031110-D.bmp</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.1169070973992348</v>
+        <v>0.3754317462444305</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>021-SHZL-00423-WHZH-201905051411-D.bmp</t>
+          <t>021-SHZL-00084-CHYM-201711080842-D.bmp</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.374539703130722</v>
+        <v>0.7836149930953979</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00282-HDM-201905070959-D.bmp</t>
+          <t>0571-ZHJSH-00413-JJF-201907161048-D.bmp</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.2704170048236847</v>
+        <v>0.4437242150306702</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -3850,11 +3850,11 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00019-HPX-201807090946-D-R.bmp</t>
+          <t>028-CDEF-00140-LF-201909180910-D.bmp</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.4894618093967438</v>
+        <v>0.4025801718235016</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -3866,11 +3866,11 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>0311-SJZFY-00009-LYL-201901151120-D-L.bmp</t>
+          <t>029-XAJD-00165-GCHX-201808151555-D.bmp</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.6469210386276245</v>
+        <v>0.6607863903045654</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
@@ -3882,30 +3882,30 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>021-SHZL-00231-SLZH-201807120937-D.bmp</t>
+          <t>0571-ZHJSH-00167-XLL-201809181003-D-R.bmp</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.6086611151695251</v>
+        <v>0.2588274776935577</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>029-XAJD-00258-CHHF-201905311503-D.bmp</t>
+          <t>0571-ZHJSH-00316-ZHLCH-201906040935-D.bmp</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.726134181022644</v>
+        <v>0.2117380648851395</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
@@ -3914,30 +3914,30 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00127-CHHY-201808271510-D.bmp</t>
+          <t>029-XAJD-00184-ZHMJ-201809191204-D.bmp</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.213585302233696</v>
+        <v>0.7172117829322815</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00035-HJY-201807121224-D-R.bmp</t>
+          <t>0571-ZHJSH-00062-LJX-201807241439-D.bmp</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.5931081175804138</v>
+        <v>0.4197605848312378</v>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -3946,11 +3946,11 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00186-WTG-201810181143-D-L.bmp</t>
+          <t>028-CDFE-00133-ZHN-201909110834-D.bmp</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.200956717133522</v>
+        <v>0.04235566779971123</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -3962,11 +3962,11 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00188-XJQ-201810251223-D.bmp</t>
+          <t>0571-ZHJSH-00343-YML-201906170916-D.bmp</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.1441201269626617</v>
+        <v>0.4538535475730896</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -3978,14 +3978,14 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00072-ZHJF-201807301020-D.bmp</t>
+          <t>021-SHZL-00121-XJF-201801310949-D.bmp</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.06456631422042847</v>
+        <v>0.7939296364784241</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -3994,27 +3994,27 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>028-CDFE-00102-WSHQ-201906271410-D.bmp</t>
+          <t>0531-SDZL-00088-LP-201912031540-D.bmp</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.1032853573560715</v>
+        <v>0.3833524882793427</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00324-ZHYF-201906100937-D.bmp</t>
+          <t>021-SHZL-00122-WBF-201801311026-D.bmp</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.6501018404960632</v>
+        <v>0.5317845940589905</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -4026,14 +4026,14 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>029-XAJD-00184-ZHMJ-201809191204-D.bmp</t>
+          <t>029-XAJD-00090-DHY-201806200826-D.bmp</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.5401487350463867</v>
+        <v>0.04891551285982132</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -4042,43 +4042,43 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>029-XAJD-00072-HXN-201806131030-D.bmp</t>
+          <t>021-SHZL-00166-ZHYZ-201804271021-D.bmp</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.5574440956115723</v>
+        <v>0.896013081073761</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>0531-SDZL-00023-CHCHH-201812101359-D.bmp</t>
+          <t>0531-SDZL-00078-ZHYL-201910081036-D.bmp</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.6960248351097107</v>
+        <v>0.3000870943069458</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00435-YFY-201907230858-D.bmp</t>
+          <t>0571-ZHJSH-00445-ZXH-201908021019-D.bmp</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.4741407334804535</v>
+        <v>0.4497231543064117</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -4090,14 +4090,14 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>021-SHZL-00351-WXJ-201810221547-D.bmp</t>
+          <t>029-XAJD-00132-YLJ-201807181116-D.bmp</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.7394415736198425</v>
+        <v>0.05795326456427574</v>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
@@ -4106,14 +4106,14 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>021-SHZL-00146-HJF-201804031110-D.bmp</t>
+          <t>021-SHZL-00278-WCHQ-201808081622-D.bmp</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.2344135046005249</v>
+        <v>0.6993026733398438</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230" t="n">
         <v>1</v>
@@ -4122,27 +4122,27 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>029-XAJD-00051-XXY-201805280952-D-R.bmp</t>
+          <t>021-SHZL-00437-CRH-201906200909-D.bmp</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.3157964944839478</v>
+        <v>0.8924013376235962</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>028-CDFE-00030-LJ-201902131015-D.bmp</t>
+          <t>0571-ZHJSH-00122-WNY-201808270959-D.bmp</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.1995328068733215</v>
+        <v>0.1071342602372169</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -4154,11 +4154,11 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>029-XAJD-00061-CHY-201806070846-D.bmp</t>
+          <t>0571-ZHJSH-00258-ZHLT-201903190936-D.bmp</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.3555082380771637</v>
+        <v>0.4105736613273621</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -4170,46 +4170,46 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>021-SHZL-00310-XHM-201808290906-D.bmp</t>
+          <t>021-SHZL-00317-JWX-201808311036-D.bmp</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.1248766481876373</v>
+        <v>0.455661416053772</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>021-SHZL-00443-TQJ-201906281100-D.bmp</t>
+          <t>022-TJZL-00087-WJ-201811161446-D.bmp</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.7182899713516235</v>
+        <v>0.4773779809474945</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00153-XSHH-201809061100-D-L.bmp</t>
+          <t>0571-ZHJSH-00201-MHJ-201811131031-D.bmp</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.1699034124612808</v>
+        <v>0.5406959652900696</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
@@ -4218,11 +4218,11 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>028-CDEF-00148-ZRY-201910221540-D.bmp</t>
+          <t>0571-ZHJSH-00202-CHJF-201811211120-D.bmp</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.2234517633914948</v>
+        <v>0.4713896512985229</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -4234,46 +4234,46 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>021-SHZL-00317-JWX-201808311036-D.bmp</t>
+          <t>0571-ZHJSH-00011-YJY-201807031713-D.bmp</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.5160222053527832</v>
+        <v>0.400521457195282</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>021-SHZL-00278-WCHQ-201808081622-D.bmp</t>
+          <t>029-XAJD-00100-ZHYH-201806261156-D.bmp</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.2689527571201324</v>
+        <v>0.1058872044086456</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>029-XAJD-00271-WJ-201907121048-D.bmp</t>
+          <t>0571-ZHJSH-00321-WFM-201906061009-D.bmp</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.1264083534479141</v>
+        <v>0.8428096771240234</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D240" t="n">
         <v>0</v>
@@ -4282,14 +4282,14 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>023-CHQSY-00037-LDR-201903221109-D-R.bmp</t>
+          <t>029-XAJD-00215-WYD-201811280950-D.bmp</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.7568562626838684</v>
+        <v>0.133177176117897</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D241" t="n">
         <v>0</v>
@@ -4298,11 +4298,11 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00049-GSHL-201807181104-D.bmp</t>
+          <t>029-XAJD-00296-YMH-201910230829-D.bmp</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.4714378118515015</v>
+        <v>0.1579432934522629</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -4314,46 +4314,46 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>022-TJZL-00034-CHWH-201803261531-D.bmp</t>
+          <t>021-SHZL-00140-MCP-201803230955-D.bmp</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.7650328278541565</v>
+        <v>0.2942312061786652</v>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>021-SHZL-00320-XCHX-201809031029-D.bmp</t>
+          <t>021-SHZL-00351-WXJ-201810221547-D.bmp</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.7445617318153381</v>
+        <v>0.4221478402614594</v>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>029-XAJD-00054-GWL-201805300818-D.bmp</t>
+          <t>028-CDFE-00216-YFM-202007161432-D.bmp</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.2354728132486343</v>
+        <v>0.5876438021659851</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245" t="n">
         <v>0</v>
@@ -4362,27 +4362,27 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>029-XAJD-00090-DHY-201806200826-D.bmp</t>
+          <t>028-CDFE-00144-YY-201910180925-D.bmp</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.1038284450769424</v>
+        <v>0.8638501763343811</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>028-CDFE-00095-ML-201906191042-D.bmp</t>
+          <t>021-SHZL-00310-XHM-201808290906-D.bmp</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.3475139737129211</v>
+        <v>0.1563936471939087</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -4394,78 +4394,78 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00002-CHHY-201806261723-D.bmp</t>
+          <t>022-TJZL-00083-LWY-201811141417-D.bmp</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.4074028134346008</v>
+        <v>0.1526492983102798</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00207-ZHJX-201812071532-D.bmp</t>
+          <t>0571-ZHJSH-00452-WSQ-201908130826-D.bmp</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.1023185476660728</v>
+        <v>0.7440503239631653</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>021-SHZL-00093-HL-201712111219-D.bmp</t>
+          <t>0571-ZHJSH-00176-ZHXJ-201809261042-D.bmp</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.7209725975990295</v>
+        <v>0.18592868745327</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>021-SHZL-00125-TCHY-201802011138-D.bmp</t>
+          <t>029-XAJD-00181-LAL-201809171051-D.bmp</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.8431068658828735</v>
+        <v>0.8118110299110413</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00236-XMY-201902250956-D.bmp</t>
+          <t>0571-ZHJSH-00454-JY-201908130942-D.bmp</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.5367014408111572</v>
+        <v>0.0883077085018158</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D252" t="n">
         <v>0</v>
@@ -4474,11 +4474,11 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>021-SHZL-00426-SHML-201905200946-D.bmp</t>
+          <t>021-SHZL-00320-XCHX-201809031029-D.bmp</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.8914421796798706</v>
+        <v>0.8598201870918274</v>
       </c>
       <c r="C253" t="n">
         <v>1</v>
@@ -4490,94 +4490,94 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>021-SHZL-00140-MCP-201803230955-D.bmp</t>
+          <t>029-XAJD-00171-YL-201808291030-D.bmp</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.6586536765098572</v>
+        <v>0.3380938768386841</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>0531-SDZL-00017-WCH-201811071350-D.bmp</t>
+          <t>021-SHZL-00039-LTH-20170825055-D.bmp</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.4542174637317657</v>
+        <v>0.2797302603721619</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>021-SHZL-00412-WJH-201903111603-D.bmp</t>
+          <t>028-CDFE-00205-XL-202005091040-D.bmp</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.4164482057094574</v>
+        <v>0.1086266189813614</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
       </c>
       <c r="D256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00255-WXP-201903181202-D.bmp</t>
+          <t>0571-ZHJSH-00301-ZHY-201905171046-D.bmp</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.1989393830299377</v>
+        <v>0.4232341349124908</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
       </c>
       <c r="D257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>021-SHZL-00357-CHHY-201810311435-D.bmp</t>
+          <t>021-SHZL-00411-ZSHJ-201903010940-D.bmp</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.628568172454834</v>
+        <v>0.3796164393424988</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00087-ZXL-201808060944-D.bmp</t>
+          <t>021-SHZL-00006-WL-201707140849-D.bmp</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.6104483604431152</v>
+        <v>0.3087800443172455</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D259" t="n">
         <v>0</v>
@@ -4586,30 +4586,30 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00062-LJX-201807241439-D.bmp</t>
+          <t>021-SHZL-00247-LY-201807190959-D.bmp</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.4277520477771759</v>
+        <v>0.8844978809356689</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>028-CDEF-00114-HQQ-201908020950-D.bmp</t>
+          <t>0531-SDZL-00023-CHCHH-201812101359-D.bmp</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.4666503667831421</v>
+        <v>0.7952480912208557</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D261" t="n">
         <v>0</v>
@@ -4618,14 +4618,14 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>029-CDFE-00068-GJR-201904021532-D.bmp</t>
+          <t>021-SHZL-00046-YML-201709041621-D.bmp</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.2164827585220337</v>
+        <v>0.5938727259635925</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -4634,11 +4634,11 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00433-DSHY-201907221100-D.bmp</t>
+          <t>029-CDFE-00046-QJW-201902261627-D.bmp</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.06035779789090157</v>
+        <v>0.1066363230347633</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -4650,62 +4650,62 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>021-SHZL-00104-MYF-201712190850-D.bmp</t>
+          <t>029-XAJD-00137-LHR-201807191450-D.bmp</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.5804570913314819</v>
+        <v>0.3842404186725616</v>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>021-SHZL-00410-LKL-201903010925-D.bmp</t>
+          <t>0571-ZHJSH-00255-WXP-201903181202-D.bmp</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.8377292156219482</v>
+        <v>0.2484512329101562</v>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>021-SHZL-00459-ZHXH-201907311404-D.bmp</t>
+          <t>023-CHQSY-00014-WJ-201807060916-D.bmp</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.7143942713737488</v>
+        <v>0.3161029815673828</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00371-MLQ-201906280940-D.bmp</t>
+          <t>028-CDFE-00100-CHJ-201906251138-D.bmp</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.553337037563324</v>
+        <v>0.08687707781791687</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D267" t="n">
         <v>0</v>
@@ -4714,11 +4714,11 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00436-WGF-201907230926-D.bmp</t>
+          <t>028-CDFE-00118-WJM-201908081530-D.bmp</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.1725682616233826</v>
+        <v>0.07122340053319931</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -4730,11 +4730,11 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>029-XAJD-00305-JFH-201910301645-D.bmp</t>
+          <t>0571-ZHJSH-00233-DL-201902211652-D-L.bmp</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.02312510833144188</v>
+        <v>0.4228518307209015</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -4746,11 +4746,11 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00233-DL-201902211652-D-L.bmp</t>
+          <t>028-CDEF-00175-YYJ-201912241613-D.bmp</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.3435696065425873</v>
+        <v>0.2801133394241333</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -4762,11 +4762,11 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00201-MHJ-201811131031-D.bmp</t>
+          <t>0571-ZHJSH-00153-XSHH-201809061100-D-L.bmp</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.1250926107168198</v>
+        <v>0.1271839439868927</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -4778,14 +4778,14 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>021-SHZL-00003-HYM-201707131339-D.bmp</t>
+          <t>028-CDFE-00093-ZHZHH-201906191018-D.bmp</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.6404128074645996</v>
+        <v>0.421134889125824</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D272" t="n">
         <v>0</v>
@@ -4794,14 +4794,14 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>021-SHZL-00189-SHYH-201806121134-D.bmp</t>
+          <t>0571-ZHJSH-00072-ZHJF-201807301020-D.bmp</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.8599904179573059</v>
+        <v>0.2937903106212616</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D273" t="n">
         <v>0</v>
@@ -4810,49 +4810,49 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00182-XXM-201809281113-D-R.bmp</t>
+          <t>021-SHZL-00211-LCHY-201806261406-D.bmp</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.2058739960193634</v>
+        <v>0.8217151165008545</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>021-SHZL-00188-HJ-201806081517-D.bmp</t>
+          <t>0571-ZHJSH-00111-LLJ-201808231047-D.bmp</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.8913035988807678</v>
+        <v>0.6117536425590515</v>
       </c>
       <c r="C275" t="n">
         <v>1</v>
       </c>
       <c r="D275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>028-CDFE-00168-WLF-201911181441-D-L.bmp</t>
+          <t>021-SHZL-00470-LWF-201908301420-D.bmp</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.1502639204263687</v>
+        <v>0.8797962069511414</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
